--- a/TestData/JTPS-DEVQA/CalendarMonth.xlsx
+++ b/TestData/JTPS-DEVQA/CalendarMonth.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="CalendarMonth" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="116">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -959,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X248"/>
+  <dimension ref="A1:X249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4289,97 +4289,125 @@
       <c r="W72" s="35"/>
       <c r="X72" s="37"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
+    <row r="73" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="34"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G73" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M73" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="N73" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="O73" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="P73" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q73" s="30"/>
+      <c r="R73" s="30"/>
+      <c r="S73" s="30"/>
+      <c r="T73" s="30"/>
+      <c r="U73" s="30"/>
+      <c r="V73" s="35"/>
+      <c r="W73" s="35"/>
+      <c r="X73" s="37"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A74" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="B74" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E73" s="26" t="s">
+      <c r="E74" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="F73" s="27" t="s">
+      <c r="F74" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="G73" s="27" t="s">
+      <c r="G74" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="H73" s="28" t="s">
+      <c r="H74" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="I73" s="29" t="s">
+      <c r="I74" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="J73" s="23" t="s">
+      <c r="J74" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="K73" s="23" t="s">
+      <c r="K74" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="L73" s="23" t="s">
+      <c r="L74" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="M73" s="23" t="s">
+      <c r="M74" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="N73" s="23" t="s">
+      <c r="N74" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="O73" s="23" t="s">
+      <c r="O74" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="P73" s="35" t="s">
+      <c r="P74" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="Q73" s="35" t="s">
+      <c r="Q74" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="R73" s="35" t="s">
+      <c r="R74" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="S73" s="35" t="s">
+      <c r="S74" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="T73" s="35" t="s">
+      <c r="T74" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="U73" s="35" t="s">
+      <c r="U74" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="V73" s="35" t="s">
+      <c r="V74" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="W73" s="35" t="s">
+      <c r="W74" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="X73" s="35" t="s">
+      <c r="X74" s="35" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="40"/>
-      <c r="K74" s="40"/>
-      <c r="L74" s="40"/>
-      <c r="M74" s="40"/>
-      <c r="N74" s="40"/>
-      <c r="O74" s="44"/>
-      <c r="P74" s="40"/>
     </row>
     <row r="75" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
@@ -4411,7 +4439,7 @@
       <c r="I76" s="40"/>
       <c r="J76" s="40"/>
       <c r="K76" s="40"/>
-      <c r="L76" s="46"/>
+      <c r="L76" s="40"/>
       <c r="M76" s="40"/>
       <c r="N76" s="40"/>
       <c r="O76" s="44"/>
@@ -4427,11 +4455,12 @@
       <c r="G77" s="43"/>
       <c r="H77" s="1"/>
       <c r="I77" s="40"/>
+      <c r="J77" s="40"/>
       <c r="K77" s="40"/>
       <c r="L77" s="46"/>
       <c r="M77" s="40"/>
       <c r="N77" s="40"/>
-      <c r="O77" s="40"/>
+      <c r="O77" s="44"/>
       <c r="P77" s="40"/>
     </row>
     <row r="78" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
@@ -4444,12 +4473,11 @@
       <c r="G78" s="43"/>
       <c r="H78" s="1"/>
       <c r="I78" s="40"/>
-      <c r="J78" s="40"/>
       <c r="K78" s="40"/>
       <c r="L78" s="46"/>
       <c r="M78" s="40"/>
       <c r="N78" s="40"/>
-      <c r="O78" s="44"/>
+      <c r="O78" s="40"/>
       <c r="P78" s="40"/>
     </row>
     <row r="79" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
@@ -4467,7 +4495,7 @@
       <c r="L79" s="46"/>
       <c r="M79" s="40"/>
       <c r="N79" s="40"/>
-      <c r="O79" s="40"/>
+      <c r="O79" s="44"/>
       <c r="P79" s="40"/>
     </row>
     <row r="80" spans="1:24" s="45" customFormat="1" x14ac:dyDescent="0.25">
@@ -4500,17 +4528,29 @@
       <c r="I81" s="40"/>
       <c r="J81" s="40"/>
       <c r="K81" s="40"/>
-      <c r="L81" s="40"/>
+      <c r="L81" s="46"/>
       <c r="M81" s="40"/>
       <c r="N81" s="40"/>
       <c r="O81" s="40"/>
-      <c r="P81" s="2"/>
+      <c r="P81" s="40"/>
     </row>
     <row r="82" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="40"/>
       <c r="M82" s="40"/>
       <c r="N82" s="40"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="2"/>
     </row>
     <row r="83" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
@@ -4530,7 +4570,12 @@
       <c r="M85" s="40"/>
       <c r="N85" s="40"/>
     </row>
-    <row r="86" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+    </row>
     <row r="87" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4633,7 +4678,7 @@
     <row r="186" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="187" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="188" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="45" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="190" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="191" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="192" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4693,6 +4738,7 @@
     <row r="246" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="247" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="248" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1"/>
